--- a/natmiOut/OldD0/LR-pairs_lrc2p/Sema4d-Plxnb2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Sema4d-Plxnb2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.48398272709982</v>
+        <v>68.50681433333334</v>
       </c>
       <c r="H2">
-        <v>6.48398272709982</v>
+        <v>205.520443</v>
       </c>
       <c r="I2">
-        <v>0.7372470794490444</v>
+        <v>0.9663865053086182</v>
       </c>
       <c r="J2">
-        <v>0.7372470794490444</v>
+        <v>0.9663865053086185</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.494060934262039</v>
+        <v>8.828998666666665</v>
       </c>
       <c r="N2">
-        <v>8.494060934262039</v>
+        <v>26.486996</v>
       </c>
       <c r="O2">
-        <v>0.1756962775117974</v>
+        <v>0.1794455804823882</v>
       </c>
       <c r="P2">
-        <v>0.1756962775117974</v>
+        <v>0.1794455804823882</v>
       </c>
       <c r="Q2">
-        <v>55.07534438068842</v>
+        <v>604.8465724065809</v>
       </c>
       <c r="R2">
-        <v>55.07534438068842</v>
+        <v>5443.619151659227</v>
       </c>
       <c r="S2">
-        <v>0.1295315674656415</v>
+        <v>0.1734137874154515</v>
       </c>
       <c r="T2">
-        <v>0.1295315674656415</v>
+        <v>0.1734137874154515</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.48398272709982</v>
+        <v>68.50681433333334</v>
       </c>
       <c r="H3">
-        <v>6.48398272709982</v>
+        <v>205.520443</v>
       </c>
       <c r="I3">
-        <v>0.7372470794490444</v>
+        <v>0.9663865053086182</v>
       </c>
       <c r="J3">
-        <v>0.7372470794490444</v>
+        <v>0.9663865053086185</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.1002042850288</v>
+        <v>19.33828433333333</v>
       </c>
       <c r="N3">
-        <v>19.1002042850288</v>
+        <v>58.014853</v>
       </c>
       <c r="O3">
-        <v>0.3950801411205081</v>
+        <v>0.3930422677296217</v>
       </c>
       <c r="P3">
-        <v>0.3950801411205081</v>
+        <v>0.3930422677296217</v>
       </c>
       <c r="Q3">
-        <v>123.8453946682047</v>
+        <v>1324.804254348876</v>
       </c>
       <c r="R3">
-        <v>123.8453946682047</v>
+        <v>11923.23828913988</v>
       </c>
       <c r="S3">
-        <v>0.2912716801894109</v>
+        <v>0.3798307435498034</v>
       </c>
       <c r="T3">
-        <v>0.2912716801894109</v>
+        <v>0.3798307435498035</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.48398272709982</v>
+        <v>68.50681433333334</v>
       </c>
       <c r="H4">
-        <v>6.48398272709982</v>
+        <v>205.520443</v>
       </c>
       <c r="I4">
-        <v>0.7372470794490444</v>
+        <v>0.9663865053086182</v>
       </c>
       <c r="J4">
-        <v>0.7372470794490444</v>
+        <v>0.9663865053086185</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.7508736450866</v>
+        <v>21.03425566666667</v>
       </c>
       <c r="N4">
-        <v>20.7508736450866</v>
+        <v>63.102767</v>
       </c>
       <c r="O4">
-        <v>0.4292235813676945</v>
+        <v>0.4275121517879902</v>
       </c>
       <c r="P4">
-        <v>0.4292235813676945</v>
+        <v>0.4275121517879902</v>
       </c>
       <c r="Q4">
-        <v>134.5483062869724</v>
+        <v>1440.989847596198</v>
       </c>
       <c r="R4">
-        <v>134.5483062869724</v>
+        <v>12968.90862836578</v>
       </c>
       <c r="S4">
-        <v>0.316443831793992</v>
+        <v>0.4131419743433634</v>
       </c>
       <c r="T4">
-        <v>0.316443831793992</v>
+        <v>0.4131419743433635</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.15829786012552</v>
+        <v>1.228643</v>
       </c>
       <c r="H5">
-        <v>1.15829786012552</v>
+        <v>3.685929</v>
       </c>
       <c r="I5">
-        <v>0.13170172569099</v>
+        <v>0.01733176511849816</v>
       </c>
       <c r="J5">
-        <v>0.13170172569099</v>
+        <v>0.01733176511849817</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.494060934262039</v>
+        <v>8.828998666666665</v>
       </c>
       <c r="N5">
-        <v>8.494060934262039</v>
+        <v>26.486996</v>
       </c>
       <c r="O5">
-        <v>0.1756962775117974</v>
+        <v>0.1794455804823882</v>
       </c>
       <c r="P5">
-        <v>0.1756962775117974</v>
+        <v>0.1794455804823882</v>
       </c>
       <c r="Q5">
-        <v>9.838652603931497</v>
+        <v>10.84768740880933</v>
       </c>
       <c r="R5">
-        <v>9.838652603931497</v>
+        <v>97.62918667928399</v>
       </c>
       <c r="S5">
-        <v>0.02313950294578679</v>
+        <v>0.00311010865247331</v>
       </c>
       <c r="T5">
-        <v>0.02313950294578679</v>
+        <v>0.00311010865247331</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.15829786012552</v>
+        <v>1.228643</v>
       </c>
       <c r="H6">
-        <v>1.15829786012552</v>
+        <v>3.685929</v>
       </c>
       <c r="I6">
-        <v>0.13170172569099</v>
+        <v>0.01733176511849816</v>
       </c>
       <c r="J6">
-        <v>0.13170172569099</v>
+        <v>0.01733176511849817</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.1002042850288</v>
+        <v>19.33828433333333</v>
       </c>
       <c r="N6">
-        <v>19.1002042850288</v>
+        <v>58.014853</v>
       </c>
       <c r="O6">
-        <v>0.3950801411205081</v>
+        <v>0.3930422677296217</v>
       </c>
       <c r="P6">
-        <v>0.3950801411205081</v>
+        <v>0.3930422677296217</v>
       </c>
       <c r="Q6">
-        <v>22.12372575130914</v>
+        <v>23.75984767815967</v>
       </c>
       <c r="R6">
-        <v>22.12372575130914</v>
+        <v>213.838629103437</v>
       </c>
       <c r="S6">
-        <v>0.05203273637181076</v>
+        <v>0.006812116265931673</v>
       </c>
       <c r="T6">
-        <v>0.05203273637181076</v>
+        <v>0.006812116265931674</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.15829786012552</v>
+        <v>1.228643</v>
       </c>
       <c r="H7">
-        <v>1.15829786012552</v>
+        <v>3.685929</v>
       </c>
       <c r="I7">
-        <v>0.13170172569099</v>
+        <v>0.01733176511849816</v>
       </c>
       <c r="J7">
-        <v>0.13170172569099</v>
+        <v>0.01733176511849817</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.7508736450866</v>
+        <v>21.03425566666667</v>
       </c>
       <c r="N7">
-        <v>20.7508736450866</v>
+        <v>63.102767</v>
       </c>
       <c r="O7">
-        <v>0.4292235813676945</v>
+        <v>0.4275121517879902</v>
       </c>
       <c r="P7">
-        <v>0.4292235813676945</v>
+        <v>0.4275121517879902</v>
       </c>
       <c r="Q7">
-        <v>24.03569253883886</v>
+        <v>25.84359098506033</v>
       </c>
       <c r="R7">
-        <v>24.03569253883886</v>
+        <v>232.592318865543</v>
       </c>
       <c r="S7">
-        <v>0.0565294863733924</v>
+        <v>0.00740954020009318</v>
       </c>
       <c r="T7">
-        <v>0.0565294863733924</v>
+        <v>0.007409540200093181</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.15257653441344</v>
+        <v>1.154206333333333</v>
       </c>
       <c r="H8">
-        <v>1.15257653441344</v>
+        <v>3.462619</v>
       </c>
       <c r="I8">
-        <v>0.1310511948599656</v>
+        <v>0.01628172957288352</v>
       </c>
       <c r="J8">
-        <v>0.1310511948599656</v>
+        <v>0.01628172957288353</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.494060934262039</v>
+        <v>8.828998666666665</v>
       </c>
       <c r="N8">
-        <v>8.494060934262039</v>
+        <v>26.486996</v>
       </c>
       <c r="O8">
-        <v>0.1756962775117974</v>
+        <v>0.1794455804823882</v>
       </c>
       <c r="P8">
-        <v>0.1756962775117974</v>
+        <v>0.1794455804823882</v>
       </c>
       <c r="Q8">
-        <v>9.790055314708328</v>
+        <v>10.19048617805822</v>
       </c>
       <c r="R8">
-        <v>9.790055314708328</v>
+        <v>91.714375602524</v>
       </c>
       <c r="S8">
-        <v>0.02302520710036915</v>
+        <v>0.002921684414463349</v>
       </c>
       <c r="T8">
-        <v>0.02302520710036915</v>
+        <v>0.00292168441446335</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.15257653441344</v>
+        <v>1.154206333333333</v>
       </c>
       <c r="H9">
-        <v>1.15257653441344</v>
+        <v>3.462619</v>
       </c>
       <c r="I9">
-        <v>0.1310511948599656</v>
+        <v>0.01628172957288352</v>
       </c>
       <c r="J9">
-        <v>0.1310511948599656</v>
+        <v>0.01628172957288353</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.1002042850288</v>
+        <v>19.33828433333333</v>
       </c>
       <c r="N9">
-        <v>19.1002042850288</v>
+        <v>58.014853</v>
       </c>
       <c r="O9">
-        <v>0.3950801411205081</v>
+        <v>0.3930422677296217</v>
       </c>
       <c r="P9">
-        <v>0.3950801411205081</v>
+        <v>0.3930422677296217</v>
       </c>
       <c r="Q9">
-        <v>22.01444726142723</v>
+        <v>22.32037025333412</v>
       </c>
       <c r="R9">
-        <v>22.01444726142723</v>
+        <v>200.883332280007</v>
       </c>
       <c r="S9">
-        <v>0.05177572455928642</v>
+        <v>0.006399407913886585</v>
       </c>
       <c r="T9">
-        <v>0.05177572455928642</v>
+        <v>0.006399407913886586</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.15257653441344</v>
+        <v>1.154206333333333</v>
       </c>
       <c r="H10">
-        <v>1.15257653441344</v>
+        <v>3.462619</v>
       </c>
       <c r="I10">
-        <v>0.1310511948599656</v>
+        <v>0.01628172957288352</v>
       </c>
       <c r="J10">
-        <v>0.1310511948599656</v>
+        <v>0.01628172957288353</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.7508736450866</v>
+        <v>21.03425566666667</v>
       </c>
       <c r="N10">
-        <v>20.7508736450866</v>
+        <v>63.102767</v>
       </c>
       <c r="O10">
-        <v>0.4292235813676945</v>
+        <v>0.4275121517879902</v>
       </c>
       <c r="P10">
-        <v>0.4292235813676945</v>
+        <v>0.4275121517879902</v>
       </c>
       <c r="Q10">
-        <v>23.9169700319051</v>
+        <v>24.27787110741922</v>
       </c>
       <c r="R10">
-        <v>23.9169700319051</v>
+        <v>218.500839966773</v>
       </c>
       <c r="S10">
-        <v>0.05625026320031003</v>
+        <v>0.006960637244533589</v>
       </c>
       <c r="T10">
-        <v>0.05625026320031003</v>
+        <v>0.006960637244533591</v>
       </c>
     </row>
   </sheetData>
